--- a/populate_data_app/files/generated-energy-usage-by-mobile-applications.xlsx
+++ b/populate_data_app/files/generated-energy-usage-by-mobile-applications.xlsx
@@ -438,16 +438,16 @@
         <v>3452.054794520548</v>
       </c>
       <c r="H2" t="str">
-        <v>3/6/2022</v>
+        <v>28/11/2021</v>
       </c>
       <c r="I2" t="str">
-        <v>Saturday</v>
+        <v>Sunday</v>
       </c>
       <c r="J2" t="str">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K2">
-        <v>575.3424657534247</v>
+        <v>719.1780821917808</v>
       </c>
     </row>
     <row r="3">
@@ -473,16 +473,16 @@
         <v>2106.849315068493</v>
       </c>
       <c r="H3" t="str">
-        <v>3/6/2022</v>
+        <v>28/11/2021</v>
       </c>
       <c r="I3" t="str">
-        <v>Saturday</v>
+        <v>Sunday</v>
       </c>
       <c r="J3" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K3">
-        <v>175.57077625570776</v>
+        <v>263.35616438356163</v>
       </c>
     </row>
     <row r="4">
@@ -508,16 +508,16 @@
         <v>2756.1643835616437</v>
       </c>
       <c r="H4" t="str">
-        <v>3/6/2022</v>
+        <v>28/11/2021</v>
       </c>
       <c r="I4" t="str">
-        <v>Saturday</v>
+        <v>Sunday</v>
       </c>
       <c r="J4" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4">
-        <v>344.52054794520546</v>
+        <v>229.68036529680364</v>
       </c>
     </row>
     <row r="5">
@@ -543,16 +543,16 @@
         <v>794.5205479452054</v>
       </c>
       <c r="H5" t="str">
-        <v>3/6/2022</v>
+        <v>28/11/2021</v>
       </c>
       <c r="I5" t="str">
-        <v>Saturday</v>
+        <v>Sunday</v>
       </c>
       <c r="J5" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>66.21004566210044</v>
+        <v>33.10502283105022</v>
       </c>
     </row>
     <row r="6">
@@ -578,16 +578,16 @@
         <v>1643.835616438356</v>
       </c>
       <c r="H6" t="str">
-        <v>3/6/2022</v>
+        <v>28/11/2021</v>
       </c>
       <c r="I6" t="str">
-        <v>Saturday</v>
+        <v>Sunday</v>
       </c>
       <c r="J6" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K6">
-        <v>136.98630136986299</v>
+        <v>273.97260273972597</v>
       </c>
     </row>
     <row r="7">
@@ -595,13 +595,13 @@
         <v>Age group - 14 - 30</v>
       </c>
       <c r="H7" t="str">
-        <v>3/6/2022</v>
+        <v>28/11/2021</v>
       </c>
       <c r="I7" t="str">
-        <v>Saturday</v>
+        <v>Sunday</v>
       </c>
       <c r="J7" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K7">
         <v>NaN</v>
@@ -630,16 +630,16 @@
         <v>3452.054794520548</v>
       </c>
       <c r="H8" t="str">
-        <v>3/6/2022</v>
+        <v>29/11/2021</v>
       </c>
       <c r="I8" t="str">
-        <v>Saturday</v>
+        <v>Monday</v>
       </c>
       <c r="J8" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K8">
-        <v>575.3424657534247</v>
+        <v>287.67123287671234</v>
       </c>
     </row>
     <row r="9">
@@ -665,16 +665,16 @@
         <v>2106.849315068493</v>
       </c>
       <c r="H9" t="str">
-        <v>3/6/2022</v>
+        <v>29/11/2021</v>
       </c>
       <c r="I9" t="str">
-        <v>Saturday</v>
+        <v>Monday</v>
       </c>
       <c r="J9" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>175.57077625570776</v>
+        <v>87.78538812785388</v>
       </c>
     </row>
     <row r="10">
@@ -700,10 +700,10 @@
         <v>2756.1643835616437</v>
       </c>
       <c r="H10" t="str">
-        <v>3/6/2022</v>
+        <v>29/11/2021</v>
       </c>
       <c r="I10" t="str">
-        <v>Saturday</v>
+        <v>Monday</v>
       </c>
       <c r="J10" t="str">
         <v>3</v>
@@ -735,16 +735,16 @@
         <v>794.5205479452054</v>
       </c>
       <c r="H11" t="str">
-        <v>3/6/2022</v>
+        <v>29/11/2021</v>
       </c>
       <c r="I11" t="str">
-        <v>Saturday</v>
+        <v>Monday</v>
       </c>
       <c r="J11" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K11">
-        <v>66.21004566210044</v>
+        <v>132.42009132420088</v>
       </c>
     </row>
     <row r="12">
@@ -770,16 +770,16 @@
         <v>1643.835616438356</v>
       </c>
       <c r="H12" t="str">
-        <v>3/6/2022</v>
+        <v>29/11/2021</v>
       </c>
       <c r="I12" t="str">
-        <v>Saturday</v>
+        <v>Monday</v>
       </c>
       <c r="J12" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K12">
-        <v>136.98630136986299</v>
+        <v>205.4794520547945</v>
       </c>
     </row>
     <row r="13">
@@ -787,13 +787,13 @@
         <v>Age group - 14 - 30</v>
       </c>
       <c r="H13" t="str">
-        <v>3/6/2022</v>
+        <v>29/11/2021</v>
       </c>
       <c r="I13" t="str">
-        <v>Saturday</v>
+        <v>Monday</v>
       </c>
       <c r="J13" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <v>NaN</v>
@@ -822,16 +822,16 @@
         <v>3452.054794520548</v>
       </c>
       <c r="H14" t="str">
-        <v>3/6/2022</v>
+        <v>1/12/2021</v>
       </c>
       <c r="I14" t="str">
-        <v>Saturday</v>
+        <v>Tuesday</v>
       </c>
       <c r="J14" t="str">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K14">
-        <v>575.3424657534247</v>
+        <v>719.1780821917808</v>
       </c>
     </row>
     <row r="15">
@@ -857,10 +857,10 @@
         <v>2106.849315068493</v>
       </c>
       <c r="H15" t="str">
-        <v>3/6/2022</v>
+        <v>1/12/2021</v>
       </c>
       <c r="I15" t="str">
-        <v>Saturday</v>
+        <v>Tuesday</v>
       </c>
       <c r="J15" t="str">
         <v>2</v>
@@ -892,16 +892,16 @@
         <v>2756.1643835616437</v>
       </c>
       <c r="H16" t="str">
-        <v>3/6/2022</v>
+        <v>1/12/2021</v>
       </c>
       <c r="I16" t="str">
-        <v>Saturday</v>
+        <v>Tuesday</v>
       </c>
       <c r="J16" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K16">
-        <v>344.52054794520546</v>
+        <v>229.68036529680364</v>
       </c>
     </row>
     <row r="17">
@@ -927,10 +927,10 @@
         <v>794.5205479452054</v>
       </c>
       <c r="H17" t="str">
-        <v>3/6/2022</v>
+        <v>1/12/2021</v>
       </c>
       <c r="I17" t="str">
-        <v>Saturday</v>
+        <v>Tuesday</v>
       </c>
       <c r="J17" t="str">
         <v>2</v>
@@ -962,16 +962,16 @@
         <v>1643.835616438356</v>
       </c>
       <c r="H18" t="str">
-        <v>3/6/2022</v>
+        <v>1/12/2021</v>
       </c>
       <c r="I18" t="str">
-        <v>Saturday</v>
+        <v>Tuesday</v>
       </c>
       <c r="J18" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K18">
-        <v>136.98630136986299</v>
+        <v>205.4794520547945</v>
       </c>
     </row>
     <row r="19">
@@ -979,13 +979,13 @@
         <v>Age group - 14 - 30</v>
       </c>
       <c r="H19" t="str">
-        <v>3/6/2022</v>
+        <v>1/12/2021</v>
       </c>
       <c r="I19" t="str">
-        <v>Saturday</v>
+        <v>Tuesday</v>
       </c>
       <c r="J19" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
         <v>NaN</v>
@@ -1014,16 +1014,16 @@
         <v>3452.054794520548</v>
       </c>
       <c r="H20" t="str">
-        <v>3/6/2022</v>
+        <v>2/12/2021</v>
       </c>
       <c r="I20" t="str">
-        <v>Saturday</v>
+        <v>Wednesday</v>
       </c>
       <c r="J20" t="str">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K20">
-        <v>575.3424657534247</v>
+        <v>719.1780821917808</v>
       </c>
     </row>
     <row r="21">
@@ -1049,16 +1049,16 @@
         <v>2106.849315068493</v>
       </c>
       <c r="H21" t="str">
-        <v>3/6/2022</v>
+        <v>2/12/2021</v>
       </c>
       <c r="I21" t="str">
-        <v>Saturday</v>
+        <v>Wednesday</v>
       </c>
       <c r="J21" t="str">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K21">
-        <v>175.57077625570776</v>
+        <v>438.9269406392694</v>
       </c>
     </row>
     <row r="22">
@@ -1084,16 +1084,16 @@
         <v>2756.1643835616437</v>
       </c>
       <c r="H22" t="str">
-        <v>3/6/2022</v>
+        <v>2/12/2021</v>
       </c>
       <c r="I22" t="str">
-        <v>Saturday</v>
+        <v>Wednesday</v>
       </c>
       <c r="J22" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>344.52054794520546</v>
+        <v>114.84018264840182</v>
       </c>
     </row>
     <row r="23">
@@ -1119,16 +1119,16 @@
         <v>794.5205479452054</v>
       </c>
       <c r="H23" t="str">
-        <v>3/6/2022</v>
+        <v>2/12/2021</v>
       </c>
       <c r="I23" t="str">
-        <v>Saturday</v>
+        <v>Wednesday</v>
       </c>
       <c r="J23" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K23">
-        <v>66.21004566210044</v>
+        <v>99.31506849315068</v>
       </c>
     </row>
     <row r="24">
@@ -1154,10 +1154,10 @@
         <v>1643.835616438356</v>
       </c>
       <c r="H24" t="str">
-        <v>3/6/2022</v>
+        <v>2/12/2021</v>
       </c>
       <c r="I24" t="str">
-        <v>Saturday</v>
+        <v>Wednesday</v>
       </c>
       <c r="J24" t="str">
         <v>2</v>
@@ -1171,13 +1171,13 @@
         <v>Age group - 14 - 30</v>
       </c>
       <c r="H25" t="str">
-        <v>3/6/2022</v>
+        <v>2/12/2021</v>
       </c>
       <c r="I25" t="str">
-        <v>Saturday</v>
+        <v>Wednesday</v>
       </c>
       <c r="J25" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25">
         <v>NaN</v>
@@ -1206,16 +1206,16 @@
         <v>3452.054794520548</v>
       </c>
       <c r="H26" t="str">
-        <v>3/6/2022</v>
+        <v>3/12/2021</v>
       </c>
       <c r="I26" t="str">
-        <v>Saturday</v>
+        <v>Thursday</v>
       </c>
       <c r="J26" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K26">
-        <v>575.3424657534247</v>
+        <v>431.5068493150685</v>
       </c>
     </row>
     <row r="27">
@@ -1241,16 +1241,16 @@
         <v>2106.849315068493</v>
       </c>
       <c r="H27" t="str">
-        <v>3/6/2022</v>
+        <v>3/12/2021</v>
       </c>
       <c r="I27" t="str">
-        <v>Saturday</v>
+        <v>Thursday</v>
       </c>
       <c r="J27" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K27">
-        <v>175.57077625570776</v>
+        <v>263.35616438356163</v>
       </c>
     </row>
     <row r="28">
@@ -1276,10 +1276,10 @@
         <v>2756.1643835616437</v>
       </c>
       <c r="H28" t="str">
-        <v>3/6/2022</v>
+        <v>3/12/2021</v>
       </c>
       <c r="I28" t="str">
-        <v>Saturday</v>
+        <v>Thursday</v>
       </c>
       <c r="J28" t="str">
         <v>3</v>
@@ -1311,16 +1311,16 @@
         <v>794.5205479452054</v>
       </c>
       <c r="H29" t="str">
-        <v>3/6/2022</v>
+        <v>3/12/2021</v>
       </c>
       <c r="I29" t="str">
-        <v>Saturday</v>
+        <v>Thursday</v>
       </c>
       <c r="J29" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K29">
-        <v>66.21004566210044</v>
+        <v>99.31506849315068</v>
       </c>
     </row>
     <row r="30">
@@ -1346,16 +1346,16 @@
         <v>1643.835616438356</v>
       </c>
       <c r="H30" t="str">
-        <v>3/6/2022</v>
+        <v>3/12/2021</v>
       </c>
       <c r="I30" t="str">
-        <v>Saturday</v>
+        <v>Thursday</v>
       </c>
       <c r="J30" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K30">
-        <v>136.98630136986299</v>
+        <v>68.49315068493149</v>
       </c>
     </row>
     <row r="31">
@@ -1363,13 +1363,13 @@
         <v>Age group - 14 - 30</v>
       </c>
       <c r="H31" t="str">
-        <v>3/6/2022</v>
+        <v>3/12/2021</v>
       </c>
       <c r="I31" t="str">
-        <v>Saturday</v>
+        <v>Thursday</v>
       </c>
       <c r="J31" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31">
         <v>NaN</v>
@@ -1398,16 +1398,16 @@
         <v>3452.054794520548</v>
       </c>
       <c r="H32" t="str">
-        <v>3/6/2022</v>
+        <v>4/12/2021</v>
       </c>
       <c r="I32" t="str">
-        <v>Saturday</v>
+        <v>Friday</v>
       </c>
       <c r="J32" t="str">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K32">
-        <v>575.3424657534247</v>
+        <v>719.1780821917808</v>
       </c>
     </row>
     <row r="33">
@@ -1433,16 +1433,16 @@
         <v>2106.849315068493</v>
       </c>
       <c r="H33" t="str">
-        <v>3/6/2022</v>
+        <v>4/12/2021</v>
       </c>
       <c r="I33" t="str">
-        <v>Saturday</v>
+        <v>Friday</v>
       </c>
       <c r="J33" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K33">
-        <v>175.57077625570776</v>
+        <v>263.35616438356163</v>
       </c>
     </row>
     <row r="34">
@@ -1468,16 +1468,16 @@
         <v>2756.1643835616437</v>
       </c>
       <c r="H34" t="str">
-        <v>3/6/2022</v>
+        <v>4/12/2021</v>
       </c>
       <c r="I34" t="str">
-        <v>Saturday</v>
+        <v>Friday</v>
       </c>
       <c r="J34" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K34">
-        <v>344.52054794520546</v>
+        <v>114.84018264840182</v>
       </c>
     </row>
     <row r="35">
@@ -1503,16 +1503,16 @@
         <v>794.5205479452054</v>
       </c>
       <c r="H35" t="str">
-        <v>3/6/2022</v>
+        <v>4/12/2021</v>
       </c>
       <c r="I35" t="str">
-        <v>Saturday</v>
+        <v>Friday</v>
       </c>
       <c r="J35" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K35">
-        <v>66.21004566210044</v>
+        <v>99.31506849315068</v>
       </c>
     </row>
     <row r="36">
@@ -1538,16 +1538,16 @@
         <v>1643.835616438356</v>
       </c>
       <c r="H36" t="str">
-        <v>3/6/2022</v>
+        <v>4/12/2021</v>
       </c>
       <c r="I36" t="str">
-        <v>Saturday</v>
+        <v>Friday</v>
       </c>
       <c r="J36" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K36">
-        <v>136.98630136986299</v>
+        <v>68.49315068493149</v>
       </c>
     </row>
     <row r="37">
@@ -1555,13 +1555,13 @@
         <v>Age group - 14 - 30</v>
       </c>
       <c r="H37" t="str">
-        <v>3/6/2022</v>
+        <v>4/12/2021</v>
       </c>
       <c r="I37" t="str">
-        <v>Saturday</v>
+        <v>Friday</v>
       </c>
       <c r="J37" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37">
         <v>NaN</v>
@@ -1590,16 +1590,16 @@
         <v>3452.054794520548</v>
       </c>
       <c r="H38" t="str">
-        <v>3/6/2022</v>
+        <v>5/12/2021</v>
       </c>
       <c r="I38" t="str">
         <v>Saturday</v>
       </c>
       <c r="J38" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K38">
-        <v>575.3424657534247</v>
+        <v>287.67123287671234</v>
       </c>
     </row>
     <row r="39">
@@ -1625,16 +1625,16 @@
         <v>2106.849315068493</v>
       </c>
       <c r="H39" t="str">
-        <v>3/6/2022</v>
+        <v>5/12/2021</v>
       </c>
       <c r="I39" t="str">
         <v>Saturday</v>
       </c>
       <c r="J39" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K39">
-        <v>175.57077625570776</v>
+        <v>263.35616438356163</v>
       </c>
     </row>
     <row r="40">
@@ -1660,16 +1660,16 @@
         <v>2756.1643835616437</v>
       </c>
       <c r="H40" t="str">
-        <v>3/6/2022</v>
+        <v>5/12/2021</v>
       </c>
       <c r="I40" t="str">
         <v>Saturday</v>
       </c>
       <c r="J40" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K40">
-        <v>344.52054794520546</v>
+        <v>114.84018264840182</v>
       </c>
     </row>
     <row r="41">
@@ -1695,16 +1695,16 @@
         <v>794.5205479452054</v>
       </c>
       <c r="H41" t="str">
-        <v>3/6/2022</v>
+        <v>5/12/2021</v>
       </c>
       <c r="I41" t="str">
         <v>Saturday</v>
       </c>
       <c r="J41" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K41">
-        <v>66.21004566210044</v>
+        <v>99.31506849315068</v>
       </c>
     </row>
     <row r="42">
@@ -1730,16 +1730,16 @@
         <v>1643.835616438356</v>
       </c>
       <c r="H42" t="str">
-        <v>3/6/2022</v>
+        <v>5/12/2021</v>
       </c>
       <c r="I42" t="str">
         <v>Saturday</v>
       </c>
       <c r="J42" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K42">
-        <v>136.98630136986299</v>
+        <v>68.49315068493149</v>
       </c>
     </row>
     <row r="43">
@@ -1747,13 +1747,13 @@
         <v>Age group - 14 - 30</v>
       </c>
       <c r="H43" t="str">
-        <v>3/6/2022</v>
+        <v>5/12/2021</v>
       </c>
       <c r="I43" t="str">
         <v>Saturday</v>
       </c>
       <c r="J43" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43">
         <v>NaN</v>

--- a/populate_data_app/files/generated-energy-usage-by-mobile-applications.xlsx
+++ b/populate_data_app/files/generated-energy-usage-by-mobile-applications.xlsx
@@ -444,10 +444,10 @@
         <v>Sunday</v>
       </c>
       <c r="J2" t="str">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K2">
-        <v>719.1780821917808</v>
+        <v>431.5068493150685</v>
       </c>
     </row>
     <row r="3">
@@ -514,10 +514,10 @@
         <v>Sunday</v>
       </c>
       <c r="J4" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4">
-        <v>229.68036529680364</v>
+        <v>344.52054794520546</v>
       </c>
     </row>
     <row r="5">
@@ -549,10 +549,10 @@
         <v>Sunday</v>
       </c>
       <c r="J5" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K5">
-        <v>33.10502283105022</v>
+        <v>99.31506849315068</v>
       </c>
     </row>
     <row r="6">
@@ -584,10 +584,10 @@
         <v>Sunday</v>
       </c>
       <c r="J6" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>273.97260273972597</v>
+        <v>205.4794520547945</v>
       </c>
     </row>
     <row r="7">
@@ -601,7 +601,7 @@
         <v>Sunday</v>
       </c>
       <c r="J7" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K7">
         <v>NaN</v>
@@ -636,10 +636,10 @@
         <v>Monday</v>
       </c>
       <c r="J8" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K8">
-        <v>287.67123287671234</v>
+        <v>431.5068493150685</v>
       </c>
     </row>
     <row r="9">
@@ -671,10 +671,10 @@
         <v>Monday</v>
       </c>
       <c r="J9" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K9">
-        <v>87.78538812785388</v>
+        <v>263.35616438356163</v>
       </c>
     </row>
     <row r="10">
@@ -741,10 +741,10 @@
         <v>Monday</v>
       </c>
       <c r="J11" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K11">
-        <v>132.42009132420088</v>
+        <v>99.31506849315068</v>
       </c>
     </row>
     <row r="12">
@@ -793,7 +793,7 @@
         <v>Monday</v>
       </c>
       <c r="J13" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K13">
         <v>NaN</v>
@@ -828,10 +828,10 @@
         <v>Tuesday</v>
       </c>
       <c r="J14" t="str">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K14">
-        <v>719.1780821917808</v>
+        <v>431.5068493150685</v>
       </c>
     </row>
     <row r="15">
@@ -863,10 +863,10 @@
         <v>Tuesday</v>
       </c>
       <c r="J15" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K15">
-        <v>175.57077625570776</v>
+        <v>263.35616438356163</v>
       </c>
     </row>
     <row r="16">
@@ -898,10 +898,10 @@
         <v>Tuesday</v>
       </c>
       <c r="J16" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K16">
-        <v>229.68036529680364</v>
+        <v>344.52054794520546</v>
       </c>
     </row>
     <row r="17">
@@ -933,10 +933,10 @@
         <v>Tuesday</v>
       </c>
       <c r="J17" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K17">
-        <v>66.21004566210044</v>
+        <v>99.31506849315068</v>
       </c>
     </row>
     <row r="18">
@@ -985,7 +985,7 @@
         <v>Tuesday</v>
       </c>
       <c r="J19" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K19">
         <v>NaN</v>
@@ -1020,10 +1020,10 @@
         <v>Wednesday</v>
       </c>
       <c r="J20" t="str">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K20">
-        <v>719.1780821917808</v>
+        <v>431.5068493150685</v>
       </c>
     </row>
     <row r="21">
@@ -1055,10 +1055,10 @@
         <v>Wednesday</v>
       </c>
       <c r="J21" t="str">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K21">
-        <v>438.9269406392694</v>
+        <v>263.35616438356163</v>
       </c>
     </row>
     <row r="22">
@@ -1090,10 +1090,10 @@
         <v>Wednesday</v>
       </c>
       <c r="J22" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K22">
-        <v>114.84018264840182</v>
+        <v>344.52054794520546</v>
       </c>
     </row>
     <row r="23">
@@ -1160,10 +1160,10 @@
         <v>Wednesday</v>
       </c>
       <c r="J24" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K24">
-        <v>136.98630136986299</v>
+        <v>205.4794520547945</v>
       </c>
     </row>
     <row r="25">
@@ -1177,7 +1177,7 @@
         <v>Wednesday</v>
       </c>
       <c r="J25" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K25">
         <v>NaN</v>
@@ -1282,10 +1282,10 @@
         <v>Thursday</v>
       </c>
       <c r="J28" t="str">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="K28">
-        <v>344.52054794520546</v>
+        <v>3789.72602739726</v>
       </c>
     </row>
     <row r="29">
@@ -1352,10 +1352,10 @@
         <v>Thursday</v>
       </c>
       <c r="J30" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K30">
-        <v>68.49315068493149</v>
+        <v>205.4794520547945</v>
       </c>
     </row>
     <row r="31">
@@ -1369,7 +1369,7 @@
         <v>Thursday</v>
       </c>
       <c r="J31" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K31">
         <v>NaN</v>
@@ -1404,10 +1404,10 @@
         <v>Friday</v>
       </c>
       <c r="J32" t="str">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K32">
-        <v>719.1780821917808</v>
+        <v>431.5068493150685</v>
       </c>
     </row>
     <row r="33">
@@ -1439,10 +1439,10 @@
         <v>Friday</v>
       </c>
       <c r="J33" t="str">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="K33">
-        <v>263.35616438356163</v>
+        <v>2896.917808219178</v>
       </c>
     </row>
     <row r="34">
@@ -1474,10 +1474,10 @@
         <v>Friday</v>
       </c>
       <c r="J34" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K34">
-        <v>114.84018264840182</v>
+        <v>344.52054794520546</v>
       </c>
     </row>
     <row r="35">
@@ -1544,10 +1544,10 @@
         <v>Friday</v>
       </c>
       <c r="J36" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K36">
-        <v>68.49315068493149</v>
+        <v>205.4794520547945</v>
       </c>
     </row>
     <row r="37">
@@ -1561,7 +1561,7 @@
         <v>Friday</v>
       </c>
       <c r="J37" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K37">
         <v>NaN</v>
@@ -1596,10 +1596,10 @@
         <v>Saturday</v>
       </c>
       <c r="J38" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K38">
-        <v>287.67123287671234</v>
+        <v>431.5068493150685</v>
       </c>
     </row>
     <row r="39">
@@ -1666,10 +1666,10 @@
         <v>Saturday</v>
       </c>
       <c r="J40" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K40">
-        <v>114.84018264840182</v>
+        <v>344.52054794520546</v>
       </c>
     </row>
     <row r="41">
@@ -1736,10 +1736,10 @@
         <v>Saturday</v>
       </c>
       <c r="J42" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K42">
-        <v>68.49315068493149</v>
+        <v>205.4794520547945</v>
       </c>
     </row>
     <row r="43">
@@ -1753,7 +1753,7 @@
         <v>Saturday</v>
       </c>
       <c r="J43" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K43">
         <v>NaN</v>
